--- a/data/raw/election/voters-age-sex-education/2023/Elazığ.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Elazığ.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:37:41-19690648621" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="40">
   <si>
     <t>Elazığ</t>
   </si>
@@ -134,6 +133,12 @@
   </si>
   <si>
     <t>Sivrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -687,10 +692,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1015,10 +1029,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:N292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:A292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,24 +1048,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2109,8 +2123,8 @@
       <c r="L30" s="5">
         <v>6</v>
       </c>
-      <c r="M30" s="5">
-        <v>2.2189999999999999</v>
+      <c r="M30" s="7">
+        <v>2219</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3123,8 +3137,8 @@
       <c r="D56" s="5">
         <v>297</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.0660000000000001</v>
+      <c r="E56" s="7">
+        <v>1066</v>
       </c>
       <c r="F56" s="5">
         <v>416</v>
@@ -3132,8 +3146,8 @@
       <c r="G56" s="5">
         <v>915</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.1850000000000001</v>
+      <c r="H56" s="7">
+        <v>1185</v>
       </c>
       <c r="I56" s="5">
         <v>522</v>
@@ -3147,8 +3161,8 @@
       <c r="L56" s="5">
         <v>4</v>
       </c>
-      <c r="M56" s="5">
-        <v>4.6399999999999997</v>
+      <c r="M56" s="7">
+        <v>4640</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3227,8 +3241,8 @@
       <c r="L58" s="4">
         <v>10</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.028</v>
+      <c r="M58" s="7">
+        <v>1028</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4158,23 +4172,23 @@
       <c r="C82" s="5">
         <v>490</v>
       </c>
-      <c r="D82" s="5">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>1.37</v>
+      <c r="D82" s="7">
+        <v>1049</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1370</v>
       </c>
       <c r="F82" s="5">
         <v>962</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.992</v>
-      </c>
-      <c r="H82" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.0549999999999999</v>
+      <c r="G82" s="7">
+        <v>1992</v>
+      </c>
+      <c r="H82" s="7">
+        <v>2480</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1055</v>
       </c>
       <c r="J82" s="5">
         <v>94</v>
@@ -4185,8 +4199,8 @@
       <c r="L82" s="5">
         <v>22</v>
       </c>
-      <c r="M82" s="5">
-        <v>9.5169999999999995</v>
+      <c r="M82" s="7">
+        <v>9517</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5199,20 +5213,20 @@
       <c r="D108" s="5">
         <v>964</v>
       </c>
-      <c r="E108" s="5">
-        <v>2.2989999999999999</v>
+      <c r="E108" s="7">
+        <v>2299</v>
       </c>
       <c r="F108" s="5">
         <v>881</v>
       </c>
-      <c r="G108" s="5">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.4119999999999999</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.26</v>
+      <c r="G108" s="7">
+        <v>1273</v>
+      </c>
+      <c r="H108" s="7">
+        <v>2412</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1260</v>
       </c>
       <c r="J108" s="5">
         <v>92</v>
@@ -5223,8 +5237,8 @@
       <c r="L108" s="5">
         <v>41</v>
       </c>
-      <c r="M108" s="5">
-        <v>9.9659999999999993</v>
+      <c r="M108" s="7">
+        <v>9966</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5285,14 +5299,14 @@
       <c r="F110" s="4">
         <v>9</v>
       </c>
-      <c r="G110" s="4">
-        <v>4.1139999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>14.965</v>
-      </c>
-      <c r="I110" s="4">
-        <v>3.2160000000000002</v>
+      <c r="G110" s="9">
+        <v>4114</v>
+      </c>
+      <c r="H110" s="9">
+        <v>14965</v>
+      </c>
+      <c r="I110" s="9">
+        <v>3216</v>
       </c>
       <c r="J110" s="4">
         <v>37</v>
@@ -5303,8 +5317,8 @@
       <c r="L110" s="4">
         <v>118</v>
       </c>
-      <c r="M110" s="5">
-        <v>22.614999999999998</v>
+      <c r="M110" s="7">
+        <v>22615</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5324,14 +5338,14 @@
       <c r="F111" s="4">
         <v>9</v>
       </c>
-      <c r="G111" s="4">
-        <v>3.7290000000000001</v>
-      </c>
-      <c r="H111" s="4">
-        <v>14.922000000000001</v>
-      </c>
-      <c r="I111" s="4">
-        <v>4.4109999999999996</v>
+      <c r="G111" s="9">
+        <v>3729</v>
+      </c>
+      <c r="H111" s="9">
+        <v>14922</v>
+      </c>
+      <c r="I111" s="9">
+        <v>4411</v>
       </c>
       <c r="J111" s="4">
         <v>63</v>
@@ -5342,8 +5356,8 @@
       <c r="L111" s="4">
         <v>42</v>
       </c>
-      <c r="M111" s="5">
-        <v>23.401</v>
+      <c r="M111" s="7">
+        <v>23401</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5365,14 +5379,14 @@
       <c r="F112" s="4">
         <v>103</v>
       </c>
-      <c r="G112" s="4">
-        <v>2.3740000000000001</v>
-      </c>
-      <c r="H112" s="4">
-        <v>4.984</v>
-      </c>
-      <c r="I112" s="4">
-        <v>6.6719999999999997</v>
+      <c r="G112" s="9">
+        <v>2374</v>
+      </c>
+      <c r="H112" s="9">
+        <v>4984</v>
+      </c>
+      <c r="I112" s="9">
+        <v>6672</v>
       </c>
       <c r="J112" s="4">
         <v>676</v>
@@ -5383,8 +5397,8 @@
       <c r="L112" s="4">
         <v>61</v>
       </c>
-      <c r="M112" s="5">
-        <v>14.989000000000001</v>
+      <c r="M112" s="7">
+        <v>14989</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,14 +5418,14 @@
       <c r="F113" s="4">
         <v>175</v>
       </c>
-      <c r="G113" s="4">
-        <v>2.5529999999999999</v>
-      </c>
-      <c r="H113" s="4">
-        <v>3.774</v>
-      </c>
-      <c r="I113" s="4">
-        <v>8.1349999999999998</v>
+      <c r="G113" s="9">
+        <v>2553</v>
+      </c>
+      <c r="H113" s="9">
+        <v>3774</v>
+      </c>
+      <c r="I113" s="9">
+        <v>8135</v>
       </c>
       <c r="J113" s="4">
         <v>832</v>
@@ -5422,8 +5436,8 @@
       <c r="L113" s="4">
         <v>48</v>
       </c>
-      <c r="M113" s="5">
-        <v>16.064</v>
+      <c r="M113" s="7">
+        <v>16064</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5442,17 +5456,17 @@
       <c r="E114" s="4">
         <v>66</v>
       </c>
-      <c r="F114" s="4">
-        <v>1.319</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1.357</v>
-      </c>
-      <c r="H114" s="4">
-        <v>4.4850000000000003</v>
-      </c>
-      <c r="I114" s="4">
-        <v>5.8559999999999999</v>
+      <c r="F114" s="9">
+        <v>1319</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1357</v>
+      </c>
+      <c r="H114" s="9">
+        <v>4485</v>
+      </c>
+      <c r="I114" s="9">
+        <v>5856</v>
       </c>
       <c r="J114" s="4">
         <v>999</v>
@@ -5463,8 +5477,8 @@
       <c r="L114" s="4">
         <v>74</v>
       </c>
-      <c r="M114" s="5">
-        <v>14.311</v>
+      <c r="M114" s="7">
+        <v>14311</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5481,17 +5495,17 @@
       <c r="E115" s="4">
         <v>298</v>
       </c>
-      <c r="F115" s="4">
-        <v>2.121</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1.839</v>
-      </c>
-      <c r="H115" s="4">
-        <v>3.802</v>
-      </c>
-      <c r="I115" s="4">
-        <v>6.29</v>
+      <c r="F115" s="9">
+        <v>2121</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1839</v>
+      </c>
+      <c r="H115" s="9">
+        <v>3802</v>
+      </c>
+      <c r="I115" s="9">
+        <v>6290</v>
       </c>
       <c r="J115" s="4">
         <v>949</v>
@@ -5502,8 +5516,8 @@
       <c r="L115" s="4">
         <v>72</v>
       </c>
-      <c r="M115" s="5">
-        <v>15.868</v>
+      <c r="M115" s="7">
+        <v>15868</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5522,20 +5536,20 @@
       <c r="E116" s="4">
         <v>411</v>
       </c>
-      <c r="F116" s="4">
-        <v>1.8939999999999999</v>
-      </c>
-      <c r="G116" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="H116" s="4">
-        <v>5.3259999999999996</v>
-      </c>
-      <c r="I116" s="4">
-        <v>4.9770000000000003</v>
-      </c>
-      <c r="J116" s="4">
-        <v>1.032</v>
+      <c r="F116" s="9">
+        <v>1894</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1450</v>
+      </c>
+      <c r="H116" s="9">
+        <v>5326</v>
+      </c>
+      <c r="I116" s="9">
+        <v>4977</v>
+      </c>
+      <c r="J116" s="9">
+        <v>1032</v>
       </c>
       <c r="K116" s="4">
         <v>218</v>
@@ -5543,8 +5557,8 @@
       <c r="L116" s="4">
         <v>106</v>
       </c>
-      <c r="M116" s="5">
-        <v>15.5</v>
+      <c r="M116" s="7">
+        <v>15500</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5558,20 +5572,20 @@
       <c r="D117" s="4">
         <v>370</v>
       </c>
-      <c r="E117" s="4">
-        <v>2.5710000000000002</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.903</v>
-      </c>
-      <c r="G117" s="4">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="H117" s="4">
-        <v>4.4989999999999997</v>
-      </c>
-      <c r="I117" s="4">
-        <v>4.3540000000000001</v>
+      <c r="E117" s="9">
+        <v>2571</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1903</v>
+      </c>
+      <c r="G117" s="9">
+        <v>2342</v>
+      </c>
+      <c r="H117" s="9">
+        <v>4499</v>
+      </c>
+      <c r="I117" s="9">
+        <v>4354</v>
       </c>
       <c r="J117" s="4">
         <v>852</v>
@@ -5582,8 +5596,8 @@
       <c r="L117" s="4">
         <v>85</v>
       </c>
-      <c r="M117" s="5">
-        <v>17.241</v>
+      <c r="M117" s="7">
+        <v>17241</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5602,20 +5616,20 @@
       <c r="E118" s="4">
         <v>818</v>
       </c>
-      <c r="F118" s="4">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="G118" s="4">
-        <v>2.476</v>
-      </c>
-      <c r="H118" s="4">
-        <v>6.016</v>
-      </c>
-      <c r="I118" s="4">
-        <v>4.1849999999999996</v>
-      </c>
-      <c r="J118" s="4">
-        <v>1.05</v>
+      <c r="F118" s="9">
+        <v>1801</v>
+      </c>
+      <c r="G118" s="9">
+        <v>2476</v>
+      </c>
+      <c r="H118" s="9">
+        <v>6016</v>
+      </c>
+      <c r="I118" s="9">
+        <v>4185</v>
+      </c>
+      <c r="J118" s="9">
+        <v>1050</v>
       </c>
       <c r="K118" s="4">
         <v>223</v>
@@ -5623,8 +5637,8 @@
       <c r="L118" s="4">
         <v>122</v>
       </c>
-      <c r="M118" s="5">
-        <v>16.754999999999999</v>
+      <c r="M118" s="7">
+        <v>16755</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5638,20 +5652,20 @@
       <c r="D119" s="4">
         <v>452</v>
       </c>
-      <c r="E119" s="4">
-        <v>4.0069999999999997</v>
-      </c>
-      <c r="F119" s="4">
-        <v>1.639</v>
-      </c>
-      <c r="G119" s="4">
-        <v>3.4510000000000001</v>
-      </c>
-      <c r="H119" s="4">
-        <v>4.3739999999999997</v>
-      </c>
-      <c r="I119" s="4">
-        <v>3.1779999999999999</v>
+      <c r="E119" s="9">
+        <v>4007</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1639</v>
+      </c>
+      <c r="G119" s="9">
+        <v>3451</v>
+      </c>
+      <c r="H119" s="9">
+        <v>4374</v>
+      </c>
+      <c r="I119" s="9">
+        <v>3178</v>
       </c>
       <c r="J119" s="4">
         <v>775</v>
@@ -5662,8 +5676,8 @@
       <c r="L119" s="4">
         <v>87</v>
       </c>
-      <c r="M119" s="5">
-        <v>18.282</v>
+      <c r="M119" s="7">
+        <v>18282</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5682,17 +5696,17 @@
       <c r="E120" s="4">
         <v>946</v>
       </c>
-      <c r="F120" s="4">
-        <v>1.8240000000000001</v>
-      </c>
-      <c r="G120" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="H120" s="4">
-        <v>5.0229999999999997</v>
-      </c>
-      <c r="I120" s="4">
-        <v>3.3860000000000001</v>
+      <c r="F120" s="9">
+        <v>1824</v>
+      </c>
+      <c r="G120" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H120" s="9">
+        <v>5023</v>
+      </c>
+      <c r="I120" s="9">
+        <v>3386</v>
       </c>
       <c r="J120" s="4">
         <v>568</v>
@@ -5703,8 +5717,8 @@
       <c r="L120" s="4">
         <v>122</v>
       </c>
-      <c r="M120" s="5">
-        <v>14.680999999999999</v>
+      <c r="M120" s="7">
+        <v>14681</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,20 +5732,20 @@
       <c r="D121" s="4">
         <v>635</v>
       </c>
-      <c r="E121" s="4">
-        <v>4.6760000000000002</v>
-      </c>
-      <c r="F121" s="4">
-        <v>1.6990000000000001</v>
-      </c>
-      <c r="G121" s="4">
-        <v>3.1779999999999999</v>
-      </c>
-      <c r="H121" s="4">
-        <v>3.371</v>
-      </c>
-      <c r="I121" s="4">
-        <v>1.9950000000000001</v>
+      <c r="E121" s="9">
+        <v>4676</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1699</v>
+      </c>
+      <c r="G121" s="9">
+        <v>3178</v>
+      </c>
+      <c r="H121" s="9">
+        <v>3371</v>
+      </c>
+      <c r="I121" s="9">
+        <v>1995</v>
       </c>
       <c r="J121" s="4">
         <v>267</v>
@@ -5742,8 +5756,8 @@
       <c r="L121" s="4">
         <v>88</v>
       </c>
-      <c r="M121" s="5">
-        <v>16.247</v>
+      <c r="M121" s="7">
+        <v>16247</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5759,20 +5773,20 @@
       <c r="D122" s="4">
         <v>41</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.135</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="G122" s="4">
-        <v>2.9369999999999998</v>
-      </c>
-      <c r="H122" s="4">
-        <v>3.7469999999999999</v>
-      </c>
-      <c r="I122" s="4">
-        <v>2.7389999999999999</v>
+      <c r="E122" s="9">
+        <v>1135</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1912</v>
+      </c>
+      <c r="G122" s="9">
+        <v>2937</v>
+      </c>
+      <c r="H122" s="9">
+        <v>3747</v>
+      </c>
+      <c r="I122" s="9">
+        <v>2739</v>
       </c>
       <c r="J122" s="4">
         <v>399</v>
@@ -5783,8 +5797,8 @@
       <c r="L122" s="4">
         <v>115</v>
       </c>
-      <c r="M122" s="5">
-        <v>13.247</v>
+      <c r="M122" s="7">
+        <v>13247</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5795,23 +5809,23 @@
       <c r="C123" s="4">
         <v>340</v>
       </c>
-      <c r="D123" s="4">
-        <v>1.042</v>
-      </c>
-      <c r="E123" s="4">
-        <v>4.8129999999999997</v>
-      </c>
-      <c r="F123" s="4">
-        <v>1.4910000000000001</v>
-      </c>
-      <c r="G123" s="4">
-        <v>2.6379999999999999</v>
-      </c>
-      <c r="H123" s="4">
-        <v>2.399</v>
-      </c>
-      <c r="I123" s="4">
-        <v>1.1140000000000001</v>
+      <c r="D123" s="9">
+        <v>1042</v>
+      </c>
+      <c r="E123" s="9">
+        <v>4813</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1491</v>
+      </c>
+      <c r="G123" s="9">
+        <v>2638</v>
+      </c>
+      <c r="H123" s="9">
+        <v>2399</v>
+      </c>
+      <c r="I123" s="9">
+        <v>1114</v>
       </c>
       <c r="J123" s="4">
         <v>152</v>
@@ -5822,8 +5836,8 @@
       <c r="L123" s="4">
         <v>103</v>
       </c>
-      <c r="M123" s="5">
-        <v>14.182</v>
+      <c r="M123" s="7">
+        <v>14182</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5839,20 +5853,20 @@
       <c r="D124" s="4">
         <v>64</v>
       </c>
-      <c r="E124" s="4">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.772</v>
-      </c>
-      <c r="G124" s="4">
-        <v>2.5430000000000001</v>
-      </c>
-      <c r="H124" s="4">
-        <v>3.3620000000000001</v>
-      </c>
-      <c r="I124" s="4">
-        <v>2.0289999999999999</v>
+      <c r="E124" s="9">
+        <v>1547</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1772</v>
+      </c>
+      <c r="G124" s="9">
+        <v>2543</v>
+      </c>
+      <c r="H124" s="9">
+        <v>3362</v>
+      </c>
+      <c r="I124" s="9">
+        <v>2029</v>
       </c>
       <c r="J124" s="4">
         <v>279</v>
@@ -5863,8 +5877,8 @@
       <c r="L124" s="4">
         <v>128</v>
       </c>
-      <c r="M124" s="5">
-        <v>11.977</v>
+      <c r="M124" s="7">
+        <v>11977</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5875,20 +5889,20 @@
       <c r="C125" s="4">
         <v>671</v>
       </c>
-      <c r="D125" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="E125" s="4">
-        <v>5.0529999999999999</v>
-      </c>
-      <c r="F125" s="4">
-        <v>1.083</v>
-      </c>
-      <c r="G125" s="4">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="H125" s="4">
-        <v>1.7609999999999999</v>
+      <c r="D125" s="9">
+        <v>1470</v>
+      </c>
+      <c r="E125" s="9">
+        <v>5053</v>
+      </c>
+      <c r="F125" s="9">
+        <v>1083</v>
+      </c>
+      <c r="G125" s="9">
+        <v>1868</v>
+      </c>
+      <c r="H125" s="9">
+        <v>1761</v>
       </c>
       <c r="I125" s="4">
         <v>657</v>
@@ -5902,8 +5916,8 @@
       <c r="L125" s="4">
         <v>100</v>
       </c>
-      <c r="M125" s="5">
-        <v>12.792999999999999</v>
+      <c r="M125" s="7">
+        <v>12793</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5919,20 +5933,20 @@
       <c r="D126" s="4">
         <v>123</v>
       </c>
-      <c r="E126" s="4">
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="F126" s="4">
-        <v>1.069</v>
-      </c>
-      <c r="G126" s="4">
-        <v>1.591</v>
-      </c>
-      <c r="H126" s="4">
-        <v>3.387</v>
-      </c>
-      <c r="I126" s="4">
-        <v>1.4410000000000001</v>
+      <c r="E126" s="9">
+        <v>2078</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1069</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1591</v>
+      </c>
+      <c r="H126" s="9">
+        <v>3387</v>
+      </c>
+      <c r="I126" s="9">
+        <v>1441</v>
       </c>
       <c r="J126" s="4">
         <v>133</v>
@@ -5943,8 +5957,8 @@
       <c r="L126" s="4">
         <v>122</v>
       </c>
-      <c r="M126" s="5">
-        <v>10.147</v>
+      <c r="M126" s="7">
+        <v>10147</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5952,23 +5966,23 @@
       <c r="B127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="4">
-        <v>1.087</v>
-      </c>
-      <c r="D127" s="4">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="E127" s="4">
-        <v>4.4960000000000004</v>
+      <c r="C127" s="9">
+        <v>1087</v>
+      </c>
+      <c r="D127" s="9">
+        <v>2067</v>
+      </c>
+      <c r="E127" s="9">
+        <v>4496</v>
       </c>
       <c r="F127" s="4">
         <v>514</v>
       </c>
-      <c r="G127" s="4">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="H127" s="4">
-        <v>1.395</v>
+      <c r="G127" s="9">
+        <v>1055</v>
+      </c>
+      <c r="H127" s="9">
+        <v>1395</v>
       </c>
       <c r="I127" s="4">
         <v>353</v>
@@ -5982,8 +5996,8 @@
       <c r="L127" s="4">
         <v>113</v>
       </c>
-      <c r="M127" s="5">
-        <v>11.124000000000001</v>
+      <c r="M127" s="7">
+        <v>11124</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5999,20 +6013,20 @@
       <c r="D128" s="4">
         <v>250</v>
       </c>
-      <c r="E128" s="4">
-        <v>2.4889999999999999</v>
+      <c r="E128" s="9">
+        <v>2489</v>
       </c>
       <c r="F128" s="4">
         <v>482</v>
       </c>
-      <c r="G128" s="4">
-        <v>1.292</v>
-      </c>
-      <c r="H128" s="4">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="I128" s="4">
-        <v>1.345</v>
+      <c r="G128" s="9">
+        <v>1292</v>
+      </c>
+      <c r="H128" s="9">
+        <v>2136</v>
+      </c>
+      <c r="I128" s="9">
+        <v>1345</v>
       </c>
       <c r="J128" s="4">
         <v>69</v>
@@ -6023,8 +6037,8 @@
       <c r="L128" s="4">
         <v>100</v>
       </c>
-      <c r="M128" s="5">
-        <v>8.3789999999999996</v>
+      <c r="M128" s="7">
+        <v>8379</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6032,14 +6046,14 @@
       <c r="B129" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="4">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="D129" s="4">
-        <v>2.37</v>
-      </c>
-      <c r="E129" s="4">
-        <v>3.2519999999999998</v>
+      <c r="C129" s="9">
+        <v>1576</v>
+      </c>
+      <c r="D129" s="9">
+        <v>2370</v>
+      </c>
+      <c r="E129" s="9">
+        <v>3252</v>
       </c>
       <c r="F129" s="4">
         <v>173</v>
@@ -6062,8 +6076,8 @@
       <c r="L129" s="4">
         <v>120</v>
       </c>
-      <c r="M129" s="5">
-        <v>9.0090000000000003</v>
+      <c r="M129" s="7">
+        <v>9009</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6079,8 +6093,8 @@
       <c r="D130" s="4">
         <v>339</v>
       </c>
-      <c r="E130" s="4">
-        <v>2.1190000000000002</v>
+      <c r="E130" s="9">
+        <v>2119</v>
       </c>
       <c r="F130" s="4">
         <v>142</v>
@@ -6088,8 +6102,8 @@
       <c r="G130" s="4">
         <v>742</v>
       </c>
-      <c r="H130" s="4">
-        <v>1.044</v>
+      <c r="H130" s="9">
+        <v>1044</v>
       </c>
       <c r="I130" s="4">
         <v>687</v>
@@ -6103,8 +6117,8 @@
       <c r="L130" s="4">
         <v>66</v>
       </c>
-      <c r="M130" s="5">
-        <v>5.4210000000000003</v>
+      <c r="M130" s="7">
+        <v>5421</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6112,14 +6126,14 @@
       <c r="B131" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="4">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="D131" s="4">
-        <v>2.2240000000000002</v>
-      </c>
-      <c r="E131" s="4">
-        <v>1.8420000000000001</v>
+      <c r="C131" s="9">
+        <v>1475</v>
+      </c>
+      <c r="D131" s="9">
+        <v>2224</v>
+      </c>
+      <c r="E131" s="9">
+        <v>1842</v>
       </c>
       <c r="F131" s="4">
         <v>45</v>
@@ -6142,8 +6156,8 @@
       <c r="L131" s="4">
         <v>70</v>
       </c>
-      <c r="M131" s="5">
-        <v>6.3140000000000001</v>
+      <c r="M131" s="7">
+        <v>6314</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6159,8 +6173,8 @@
       <c r="D132" s="4">
         <v>979</v>
       </c>
-      <c r="E132" s="4">
-        <v>2.8159999999999998</v>
+      <c r="E132" s="9">
+        <v>2816</v>
       </c>
       <c r="F132" s="4">
         <v>48</v>
@@ -6183,8 +6197,8 @@
       <c r="L132" s="4">
         <v>85</v>
       </c>
-      <c r="M132" s="5">
-        <v>6.298</v>
+      <c r="M132" s="7">
+        <v>6298</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6192,14 +6206,14 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>3.089</v>
-      </c>
-      <c r="D133" s="4">
-        <v>3.9409999999999998</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1.794</v>
+      <c r="C133" s="9">
+        <v>3089</v>
+      </c>
+      <c r="D133" s="9">
+        <v>3941</v>
+      </c>
+      <c r="E133" s="9">
+        <v>1794</v>
       </c>
       <c r="F133" s="4">
         <v>10</v>
@@ -6222,8 +6236,8 @@
       <c r="L133" s="4">
         <v>154</v>
       </c>
-      <c r="M133" s="5">
-        <v>9.39</v>
+      <c r="M133" s="7">
+        <v>9390</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6231,38 +6245,38 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>10.143000000000001</v>
-      </c>
-      <c r="D134" s="5">
-        <v>17.39</v>
-      </c>
-      <c r="E134" s="5">
-        <v>47.77</v>
-      </c>
-      <c r="F134" s="5">
-        <v>23.236999999999998</v>
-      </c>
-      <c r="G134" s="5">
-        <v>47.512</v>
-      </c>
-      <c r="H134" s="5">
-        <v>96.472999999999999</v>
-      </c>
-      <c r="I134" s="5">
-        <v>68.025000000000006</v>
-      </c>
-      <c r="J134" s="5">
-        <v>9.3160000000000007</v>
-      </c>
-      <c r="K134" s="5">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="L134" s="5">
-        <v>2.3010000000000002</v>
-      </c>
-      <c r="M134" s="5">
-        <v>324.23500000000001</v>
+      <c r="C134" s="7">
+        <v>10143</v>
+      </c>
+      <c r="D134" s="7">
+        <v>17390</v>
+      </c>
+      <c r="E134" s="7">
+        <v>47770</v>
+      </c>
+      <c r="F134" s="7">
+        <v>23237</v>
+      </c>
+      <c r="G134" s="7">
+        <v>47512</v>
+      </c>
+      <c r="H134" s="7">
+        <v>96473</v>
+      </c>
+      <c r="I134" s="7">
+        <v>68025</v>
+      </c>
+      <c r="J134" s="7">
+        <v>9316</v>
+      </c>
+      <c r="K134" s="7">
+        <v>2068</v>
+      </c>
+      <c r="L134" s="7">
+        <v>2301</v>
+      </c>
+      <c r="M134" s="7">
+        <v>324235</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6341,8 +6355,8 @@
       <c r="L136" s="4">
         <v>18</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.49</v>
+      <c r="M136" s="7">
+        <v>1490</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6380,8 +6394,8 @@
       <c r="L137" s="4">
         <v>14</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.5209999999999999</v>
+      <c r="M137" s="7">
+        <v>1521</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6421,8 +6435,8 @@
       <c r="L138" s="4">
         <v>5</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.22</v>
+      <c r="M138" s="7">
+        <v>1220</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6460,8 +6474,8 @@
       <c r="L139" s="4">
         <v>9</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.095</v>
+      <c r="M139" s="7">
+        <v>1095</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6501,8 +6515,8 @@
       <c r="L140" s="4">
         <v>9</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.022</v>
+      <c r="M140" s="7">
+        <v>1022</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6581,8 +6595,8 @@
       <c r="L142" s="4">
         <v>20</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.0509999999999999</v>
+      <c r="M142" s="7">
+        <v>1051</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -7269,26 +7283,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.075</v>
-      </c>
-      <c r="D160" s="5">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>4.6790000000000003</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.6240000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>4.6319999999999997</v>
-      </c>
-      <c r="I160" s="5">
-        <v>2.4529999999999998</v>
+      <c r="C160" s="7">
+        <v>1075</v>
+      </c>
+      <c r="D160" s="7">
+        <v>2094</v>
+      </c>
+      <c r="E160" s="7">
+        <v>4679</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1745</v>
+      </c>
+      <c r="G160" s="7">
+        <v>3624</v>
+      </c>
+      <c r="H160" s="7">
+        <v>4632</v>
+      </c>
+      <c r="I160" s="7">
+        <v>2453</v>
       </c>
       <c r="J160" s="5">
         <v>224</v>
@@ -7299,8 +7313,8 @@
       <c r="L160" s="5">
         <v>644</v>
       </c>
-      <c r="M160" s="5">
-        <v>21.184000000000001</v>
+      <c r="M160" s="7">
+        <v>21184</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8322,8 +8336,8 @@
       <c r="G186" s="5">
         <v>690</v>
       </c>
-      <c r="H186" s="5">
-        <v>1.448</v>
+      <c r="H186" s="7">
+        <v>1448</v>
       </c>
       <c r="I186" s="5">
         <v>749</v>
@@ -8337,8 +8351,8 @@
       <c r="L186" s="5">
         <v>8</v>
       </c>
-      <c r="M186" s="5">
-        <v>4.9690000000000003</v>
+      <c r="M186" s="7">
+        <v>4969</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8402,8 +8416,8 @@
       <c r="G188" s="4">
         <v>833</v>
       </c>
-      <c r="H188" s="4">
-        <v>1.2170000000000001</v>
+      <c r="H188" s="9">
+        <v>1217</v>
       </c>
       <c r="I188" s="4">
         <v>189</v>
@@ -8417,8 +8431,8 @@
       <c r="L188" s="4">
         <v>23</v>
       </c>
-      <c r="M188" s="5">
-        <v>2.31</v>
+      <c r="M188" s="7">
+        <v>2310</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8441,8 +8455,8 @@
       <c r="G189" s="4">
         <v>679</v>
       </c>
-      <c r="H189" s="4">
-        <v>1.355</v>
+      <c r="H189" s="9">
+        <v>1355</v>
       </c>
       <c r="I189" s="4">
         <v>345</v>
@@ -8456,8 +8470,8 @@
       <c r="L189" s="4">
         <v>15</v>
       </c>
-      <c r="M189" s="5">
-        <v>2.4380000000000002</v>
+      <c r="M189" s="7">
+        <v>2438</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8497,8 +8511,8 @@
       <c r="L190" s="4">
         <v>11</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.6359999999999999</v>
+      <c r="M190" s="7">
+        <v>1636</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8536,8 +8550,8 @@
       <c r="L191" s="4">
         <v>10</v>
       </c>
-      <c r="M191" s="5">
-        <v>1.6160000000000001</v>
+      <c r="M191" s="7">
+        <v>1616</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8577,8 +8591,8 @@
       <c r="L192" s="4">
         <v>8</v>
       </c>
-      <c r="M192" s="5">
-        <v>1.4490000000000001</v>
+      <c r="M192" s="7">
+        <v>1449</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8616,8 +8630,8 @@
       <c r="L193" s="4">
         <v>10</v>
       </c>
-      <c r="M193" s="5">
-        <v>1.401</v>
+      <c r="M193" s="7">
+        <v>1401</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8657,8 +8671,8 @@
       <c r="L194" s="4">
         <v>18</v>
       </c>
-      <c r="M194" s="5">
-        <v>1.5049999999999999</v>
+      <c r="M194" s="7">
+        <v>1505</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8696,8 +8710,8 @@
       <c r="L195" s="4">
         <v>8</v>
       </c>
-      <c r="M195" s="5">
-        <v>1.357</v>
+      <c r="M195" s="7">
+        <v>1357</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8737,8 +8751,8 @@
       <c r="L196" s="4">
         <v>34</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.2949999999999999</v>
+      <c r="M196" s="7">
+        <v>1295</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8776,8 +8790,8 @@
       <c r="L197" s="4">
         <v>14</v>
       </c>
-      <c r="M197" s="5">
-        <v>1.3879999999999999</v>
+      <c r="M197" s="7">
+        <v>1388</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8817,8 +8831,8 @@
       <c r="L198" s="4">
         <v>38</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.0880000000000001</v>
+      <c r="M198" s="7">
+        <v>1088</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8856,8 +8870,8 @@
       <c r="L199" s="4">
         <v>14</v>
       </c>
-      <c r="M199" s="5">
-        <v>1.1739999999999999</v>
+      <c r="M199" s="7">
+        <v>1174</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8936,8 +8950,8 @@
       <c r="L201" s="4">
         <v>8</v>
       </c>
-      <c r="M201" s="5">
-        <v>1.012</v>
+      <c r="M201" s="7">
+        <v>1012</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -9345,26 +9359,26 @@
         <v>12</v>
       </c>
       <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="D212" s="5">
-        <v>2.3370000000000002</v>
-      </c>
-      <c r="E212" s="5">
-        <v>5.3250000000000002</v>
-      </c>
-      <c r="F212" s="5">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="G212" s="5">
-        <v>5.2750000000000004</v>
-      </c>
-      <c r="H212" s="5">
-        <v>6.4850000000000003</v>
-      </c>
-      <c r="I212" s="5">
-        <v>3.1280000000000001</v>
+      <c r="C212" s="7">
+        <v>1193</v>
+      </c>
+      <c r="D212" s="7">
+        <v>2337</v>
+      </c>
+      <c r="E212" s="7">
+        <v>5325</v>
+      </c>
+      <c r="F212" s="7">
+        <v>2745</v>
+      </c>
+      <c r="G212" s="7">
+        <v>5275</v>
+      </c>
+      <c r="H212" s="7">
+        <v>6485</v>
+      </c>
+      <c r="I212" s="7">
+        <v>3128</v>
       </c>
       <c r="J212" s="5">
         <v>271</v>
@@ -9375,8 +9389,8 @@
       <c r="L212" s="5">
         <v>373</v>
       </c>
-      <c r="M212" s="5">
-        <v>27.145</v>
+      <c r="M212" s="7">
+        <v>27145</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10389,17 +10403,17 @@
       <c r="D238" s="5">
         <v>892</v>
       </c>
-      <c r="E238" s="5">
-        <v>1.5309999999999999</v>
+      <c r="E238" s="7">
+        <v>1531</v>
       </c>
       <c r="F238" s="5">
         <v>594</v>
       </c>
-      <c r="G238" s="5">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>1.9850000000000001</v>
+      <c r="G238" s="7">
+        <v>1186</v>
+      </c>
+      <c r="H238" s="7">
+        <v>1985</v>
       </c>
       <c r="I238" s="5">
         <v>791</v>
@@ -10413,8 +10427,8 @@
       <c r="L238" s="5">
         <v>41</v>
       </c>
-      <c r="M238" s="5">
-        <v>7.5540000000000003</v>
+      <c r="M238" s="7">
+        <v>7554</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10493,8 +10507,8 @@
       <c r="L240" s="4">
         <v>11</v>
       </c>
-      <c r="M240" s="5">
-        <v>1.121</v>
+      <c r="M240" s="7">
+        <v>1121</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10532,8 +10546,8 @@
       <c r="L241" s="4">
         <v>2</v>
       </c>
-      <c r="M241" s="5">
-        <v>1.05</v>
+      <c r="M241" s="7">
+        <v>1050</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -11424,23 +11438,23 @@
       <c r="C264" s="5">
         <v>725</v>
       </c>
-      <c r="D264" s="5">
-        <v>1.5409999999999999</v>
-      </c>
-      <c r="E264" s="5">
-        <v>2.141</v>
-      </c>
-      <c r="F264" s="5">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="G264" s="5">
-        <v>2.2789999999999999</v>
-      </c>
-      <c r="H264" s="5">
-        <v>3.7109999999999999</v>
-      </c>
-      <c r="I264" s="5">
-        <v>1.387</v>
+      <c r="D264" s="7">
+        <v>1541</v>
+      </c>
+      <c r="E264" s="7">
+        <v>2141</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1408</v>
+      </c>
+      <c r="G264" s="7">
+        <v>2279</v>
+      </c>
+      <c r="H264" s="7">
+        <v>3711</v>
+      </c>
+      <c r="I264" s="7">
+        <v>1387</v>
       </c>
       <c r="J264" s="5">
         <v>100</v>
@@ -11451,8 +11465,8 @@
       <c r="L264" s="5">
         <v>58</v>
       </c>
-      <c r="M264" s="5">
-        <v>13.353999999999999</v>
+      <c r="M264" s="7">
+        <v>13354</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12465,8 +12479,8 @@
       <c r="D290" s="5">
         <v>752</v>
       </c>
-      <c r="E290" s="5">
-        <v>1.2509999999999999</v>
+      <c r="E290" s="7">
+        <v>1251</v>
       </c>
       <c r="F290" s="5">
         <v>506</v>
@@ -12474,8 +12488,8 @@
       <c r="G290" s="5">
         <v>831</v>
       </c>
-      <c r="H290" s="5">
-        <v>1.413</v>
+      <c r="H290" s="7">
+        <v>1413</v>
       </c>
       <c r="I290" s="5">
         <v>674</v>
@@ -12489,24 +12503,34 @@
       <c r="L290" s="5">
         <v>41</v>
       </c>
-      <c r="M290" s="5">
-        <v>5.9619999999999997</v>
+      <c r="M290" s="7">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A265:B265"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
